--- a/data-raw/data3Lsim-eV.xlsx
+++ b/data-raw/data3Lsim-eV.xlsx
@@ -59,54 +59,54 @@
   <sheetData>
     <row r="1">
       <c r="A1">
-        <v>6.8431955999890886e-05</v>
+        <v>7.2532884146011168e-05</v>
       </c>
       <c r="B1">
-        <v>1.2529418320983289e-07</v>
+        <v>-2.3982187776507627e-06</v>
       </c>
       <c r="C1">
         <v>0</v>
       </c>
       <c r="D1">
-        <v>-5.8455385100816094e-06</v>
+        <v>-1.404158055915275e-06</v>
       </c>
       <c r="E1">
-        <v>-3.9232609787985876e-06</v>
+        <v>-1.4898565014563265e-05</v>
       </c>
       <c r="F1">
-        <v>2.7491235093221441e-06</v>
+        <v>4.5442238707536129e-06</v>
       </c>
       <c r="G1">
-        <v>5.421668863184601e-06</v>
+        <v>4.9100763208715953e-05</v>
       </c>
       <c r="H1">
-        <v>-1.3053405213458391e-06</v>
+        <v>2.2452013665572286e-05</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>1.2529418320983289e-07</v>
+        <v>-2.3982187776507627e-06</v>
       </c>
       <c r="B2">
-        <v>1.2658426808640325e-05</v>
+        <v>1.6363901494641783e-05</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>-2.2800775282019748e-06</v>
+        <v>-2.9140615508620524e-06</v>
       </c>
       <c r="E2">
-        <v>-1.6711752596283877e-05</v>
+        <v>-1.0533653777898186e-05</v>
       </c>
       <c r="F2">
-        <v>6.3439276865016038e-06</v>
+        <v>5.5189236627048206e-06</v>
       </c>
       <c r="G2">
-        <v>6.6651846288878268e-06</v>
+        <v>5.643027687280438e-05</v>
       </c>
       <c r="H2">
-        <v>5.5830217300715298e-06</v>
+        <v>-3.8648673693537182e-06</v>
       </c>
     </row>
     <row r="3">
@@ -137,132 +137,132 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>-5.8455385100816094e-06</v>
+        <v>-1.404158055915275e-06</v>
       </c>
       <c r="B4">
-        <v>-2.2800775282019748e-06</v>
+        <v>-2.9140615508620524e-06</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.00028954132937600253</v>
+        <v>0.00043310654042092876</v>
       </c>
       <c r="E4">
-        <v>-4.7231550071952047e-05</v>
+        <v>-4.5605674030728585e-05</v>
       </c>
       <c r="F4">
-        <v>-1.5945586685261042e-05</v>
+        <v>-1.5939240969250187e-05</v>
       </c>
       <c r="G4">
-        <v>-9.4219149775861307e-06</v>
+        <v>-0.0001758936326501712</v>
       </c>
       <c r="H4">
-        <v>-1.848578930154141e-05</v>
+        <v>-2.6983512944323009e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>-3.9232609787985876e-06</v>
+        <v>-1.4898565014563265e-05</v>
       </c>
       <c r="B5">
-        <v>-1.6711752596283877e-05</v>
+        <v>-1.0533653777898186e-05</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>-4.7231550071952047e-05</v>
+        <v>-4.5605674030728585e-05</v>
       </c>
       <c r="E5">
-        <v>0.0013977540922493908</v>
+        <v>0.010708541403352293</v>
       </c>
       <c r="F5">
-        <v>-8.5628774399415958e-05</v>
+        <v>-7.3600652567084801e-05</v>
       </c>
       <c r="G5">
-        <v>-7.4419201055058243e-05</v>
+        <v>-0.0014445455798670118</v>
       </c>
       <c r="H5">
-        <v>-3.240140396595499e-05</v>
+        <v>-0.00010764366609338383</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>2.7491235093221441e-06</v>
+        <v>4.5442238707536129e-06</v>
       </c>
       <c r="B6">
-        <v>6.3439276865016038e-06</v>
+        <v>5.5189236627048206e-06</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>-1.5945586685261042e-05</v>
+        <v>-1.5939240969250187e-05</v>
       </c>
       <c r="E6">
-        <v>-8.5628774399415958e-05</v>
+        <v>-7.3600652567084801e-05</v>
       </c>
       <c r="F6">
-        <v>3.5360250944174945e-05</v>
+        <v>3.614494296836062e-05</v>
       </c>
       <c r="G6">
-        <v>3.3109196685775303e-05</v>
+        <v>0.00034130176995572718</v>
       </c>
       <c r="H6">
-        <v>1.896655932717231e-05</v>
+        <v>5.31075564108127e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>5.421668863184601e-06</v>
+        <v>4.9100763208715953e-05</v>
       </c>
       <c r="B7">
-        <v>6.6651846288878268e-06</v>
+        <v>5.643027687280438e-05</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>-9.4219149775861307e-06</v>
+        <v>-0.0001758936326501712</v>
       </c>
       <c r="E7">
-        <v>-7.4419201055058243e-05</v>
+        <v>-0.0014445455798670118</v>
       </c>
       <c r="F7">
-        <v>3.3109196685775303e-05</v>
+        <v>0.00034130176995572718</v>
       </c>
       <c r="G7">
-        <v>0.0013458443751519198</v>
+        <v>0.12770503455315835</v>
       </c>
       <c r="H7">
-        <v>-8.1850208031539607e-06</v>
+        <v>0.00061120561778099398</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>-1.3053405213458391e-06</v>
+        <v>2.2452013665572286e-05</v>
       </c>
       <c r="B8">
-        <v>5.5830217300715298e-06</v>
+        <v>-3.8648673693537182e-06</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>-1.848578930154141e-05</v>
+        <v>-2.6983512944323009e-05</v>
       </c>
       <c r="E8">
-        <v>-3.240140396595499e-05</v>
+        <v>-0.00010764366609338383</v>
       </c>
       <c r="F8">
-        <v>1.896655932717231e-05</v>
+        <v>5.31075564108127e-05</v>
       </c>
       <c r="G8">
-        <v>-8.1850208031539607e-06</v>
+        <v>0.00061120561778099398</v>
       </c>
       <c r="H8">
-        <v>0.0001224688769163451</v>
+        <v>0.00051981830565493129</v>
       </c>
     </row>
   </sheetData>
